--- a/팀 일정 및 역할분담.xlsx
+++ b/팀 일정 및 역할분담.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="13992" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="13992" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="G to H" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.포인트상품, 6.대결신청, 도발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13.이메일 인증/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +268,14 @@
   </si>
   <si>
     <t>15.도발게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.포인트상품, 6.대결신청, 도발, 15.로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,35 +716,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -753,54 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1149,13 +1153,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1183,351 +1187,370 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5"/>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="10"/>
       <c r="G6"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="10"/>
       <c r="G7"/>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8"/>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="4"/>
       <c r="G9"/>
-      <c r="H9" s="39" t="s">
-        <v>62</v>
+      <c r="H9" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4"/>
       <c r="G10"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4"/>
       <c r="G11"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4"/>
       <c r="G12"/>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="17"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4"/>
       <c r="G13"/>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4"/>
       <c r="G14"/>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="4"/>
       <c r="G15"/>
-      <c r="H15" s="39" t="s">
-        <v>61</v>
+      <c r="H15" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16"/>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="18"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14"/>
+      <c r="G17"/>
+      <c r="H17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="18"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="17"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="14"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="18"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="17"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="14"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="18"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="14"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="18"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="14"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="17"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="18"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="17"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="18"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="17"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="18"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="17"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="18"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="17"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="18"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="17"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="18"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="16" t="s">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="17"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="14"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="18"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="4"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="17"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="17"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="17"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="17"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="17"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="27"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="5"/>
     </row>
     <row r="42" spans="2:6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
@@ -1545,15 +1568,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
@@ -1566,6 +1580,15 @@
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
@@ -1598,142 +1621,142 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="C14" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="C12" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="C13" s="39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
-      <c r="C14" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="40"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="15"/>
+      <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="40"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="40"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="40"/>
+      <c r="A26" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/팀 일정 및 역할분담.xlsx
+++ b/팀 일정 및 역할분담.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>15.로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,39 +731,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,27 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,7 +1138,7 @@
   <dimension ref="B2:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1153,13 +1153,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1173,384 +1173,384 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5"/>
       <c r="H5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="10"/>
       <c r="G6"/>
       <c r="H6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="10"/>
       <c r="G7"/>
       <c r="H7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>12</v>
+      <c r="B8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8"/>
       <c r="H8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="4"/>
       <c r="G9"/>
       <c r="H9" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="4"/>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="4"/>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="4"/>
       <c r="G12"/>
       <c r="H12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="4"/>
       <c r="G13"/>
       <c r="H13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="4"/>
       <c r="G14"/>
       <c r="H14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="4"/>
       <c r="G15"/>
       <c r="H15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>13</v>
+      <c r="B16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16"/>
       <c r="H16" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="4"/>
       <c r="G17"/>
       <c r="H17" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="4"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="4"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="4"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="4"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="18"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="4"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="4"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>14</v>
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="18"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="4"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="18"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="4"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="18"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="4"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="18"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="4"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="18"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="4"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="18"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="4"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>15</v>
+      <c r="B31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="18"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="4"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="18"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="18"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>16</v>
+      <c r="B36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="18"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="18"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="18"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="21"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="5"/>
     </row>
     <row r="42" spans="2:6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
@@ -1568,6 +1568,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
@@ -1580,15 +1589,6 @@
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,108 +1614,108 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
       <c r="C12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
       <c r="C13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
       <c r="C14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1725,13 +1725,13 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="C17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="C18" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">

--- a/팀 일정 및 역할분담.xlsx
+++ b/팀 일정 및 역할분담.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.Q&amp;A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,35 +735,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,39 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1153,13 +1157,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1187,16 +1191,16 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="9"/>
@@ -1206,10 +1210,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="22"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="10"/>
       <c r="G6"/>
       <c r="H6" s="14" t="s">
@@ -1217,10 +1221,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="10"/>
       <c r="G7"/>
       <c r="H7" s="14" t="s">
@@ -1228,14 +1232,14 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4"/>
@@ -1245,10 +1249,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="4"/>
       <c r="G9"/>
       <c r="H9" s="14" t="s">
@@ -1256,10 +1260,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4"/>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
@@ -1267,10 +1271,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="22"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4"/>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
@@ -1278,10 +1282,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="22"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4"/>
       <c r="G12"/>
       <c r="H12" s="14" t="s">
@@ -1289,10 +1293,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="22"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4"/>
       <c r="G13"/>
       <c r="H13" s="14" t="s">
@@ -1300,10 +1304,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4"/>
       <c r="G14"/>
       <c r="H14" s="14" t="s">
@@ -1311,10 +1315,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="23"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="4"/>
       <c r="G15"/>
       <c r="H15" s="14" t="s">
@@ -1322,14 +1326,14 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4"/>
@@ -1339,10 +1343,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="22"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="4"/>
       <c r="G17"/>
       <c r="H17" s="14" t="s">
@@ -1350,207 +1354,210 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="22"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="4"/>
       <c r="G18"/>
+      <c r="H18" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="22"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="4"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="22"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="4"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="22"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="4"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="22"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="4"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="22"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="4"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="22"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="4"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="22"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="22"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="4"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="22"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="22"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="4"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="22"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="4"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="22"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="4"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="22"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="22"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="22"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="22"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="22"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="32"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="5"/>
     </row>
     <row r="42" spans="2:6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
@@ -1568,15 +1575,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
@@ -1589,6 +1587,15 @@
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀 일정 및 역할분담.xlsx
+++ b/팀 일정 및 역할분담.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="13992" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="13992" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="G to H" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.공지사항, 2.메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14자유게시판, 11.회사소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,23 +251,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13.이메일 인증/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.대결신청, 도발/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.대결신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.도발게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7.포인트상품, 6.대결신청, 도발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.이메일 인증/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.대결신청, 도발/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.대결신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.도발게시판</t>
+    <t>15.지역별 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.공지사항, 2.메인화면, 15.지역별 랭킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,35 +716,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -753,54 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1149,13 +1153,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1183,351 +1187,370 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5"/>
-      <c r="H5" s="39" t="s">
-        <v>47</v>
+      <c r="H5" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="10"/>
       <c r="G6"/>
-      <c r="H6" s="39" t="s">
-        <v>48</v>
+      <c r="H6" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="10"/>
       <c r="G7"/>
-      <c r="H7" s="39" t="s">
-        <v>49</v>
+      <c r="H7" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8"/>
-      <c r="H8" s="39" t="s">
-        <v>50</v>
+      <c r="H8" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="17"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="4"/>
       <c r="G9"/>
-      <c r="H9" s="39" t="s">
-        <v>62</v>
+      <c r="H9" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4"/>
       <c r="G10"/>
-      <c r="H10" s="39" t="s">
-        <v>51</v>
+      <c r="H10" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4"/>
       <c r="G11"/>
-      <c r="H11" s="39" t="s">
-        <v>58</v>
+      <c r="H11" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4"/>
       <c r="G12"/>
-      <c r="H12" s="39" t="s">
-        <v>57</v>
+      <c r="H12" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="17"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4"/>
       <c r="G13"/>
-      <c r="H13" s="39" t="s">
-        <v>52</v>
+      <c r="H13" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4"/>
       <c r="G14"/>
-      <c r="H14" s="39" t="s">
-        <v>53</v>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="4"/>
       <c r="G15"/>
-      <c r="H15" s="39" t="s">
-        <v>61</v>
+      <c r="H15" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16"/>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="18"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="4"/>
+      <c r="G17"/>
+      <c r="H17" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="18"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="4"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="18"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="18"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="4"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="18"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="4"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="4"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="17"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="17"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="17"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="18"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="17"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="18"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="17"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="18"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="17"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="18"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="17"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="18"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="17"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="18"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="16" t="s">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="17"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="14"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="18"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="4"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="17"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="17"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="17"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="17"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="17"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="27"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="5"/>
     </row>
     <row r="42" spans="2:6" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
@@ -1545,15 +1568,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
@@ -1566,6 +1580,15 @@
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1590,7 +1613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
@@ -1598,142 +1621,142 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>63</v>
+      <c r="C6" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="C12" s="39" t="s">
+      <c r="A12" s="12"/>
+      <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="C13" s="39" t="s">
+      <c r="A13" s="12"/>
+      <c r="C13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
-      <c r="C14" s="39" t="s">
-        <v>64</v>
+      <c r="A14" s="12"/>
+      <c r="C14" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="40"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="15"/>
+      <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="40"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="15"/>
+      <c r="C18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="40"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="40"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="40"/>
+      <c r="A26" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
